--- a/listagem.xlsx
+++ b/listagem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andersonrs\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andersonrs\Streamlit\Publicação_NAC_ebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D7073-67CB-4631-8AE3-6B3B6EBC3754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CE343B-D9A1-4DDD-ADC5-F9B6A0519B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A2BE3F93-87FC-4F6D-BE01-46E7AAA51D52}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2BE3F93-87FC-4F6D-BE01-46E7AAA51D52}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -119,85 +119,85 @@
     <t>https://static.portaldaindustria.com.br/media/filer_public/5f/30/5f306f94-1dae-4926-bcfa-451d6c2e8ff5/e-book_nac_bndes_mpme_14072025_vf.pdf</t>
   </si>
   <si>
-    <t>C:\Users\andersonrs\Streamlit\img\01_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\02_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\03_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\04_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\05_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\06_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\07_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\08_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\09_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\10_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\11_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\12_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\13_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\14_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\15_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\16_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\17_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\18_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\19_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\20_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\21_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\22_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\23_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\24_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\25_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\26_captura.png</t>
-  </si>
-  <si>
-    <t>C:\Users\andersonrs\Streamlit\img\27_captura.png</t>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/01_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/02_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/03_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/04_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/05_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/06_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/07_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/08_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/09_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/10_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/11_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/12_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/13_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/14_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/15_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/16_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/17_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/18_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/19_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/20_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/21_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/22_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/23_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/24_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/25_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/26_captura.png</t>
+  </si>
+  <si>
+    <t>https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/27_captura.png</t>
   </si>
 </sst>
 </file>
@@ -582,14 +582,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8112C0-DF33-4615-AD9A-F1C34078A8F5}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="148.109375" customWidth="1"/>
-    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="3" max="3" width="105.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -720,7 +720,7 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -731,7 +731,7 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -742,7 +742,7 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -753,7 +753,7 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -764,7 +764,7 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -775,7 +775,7 @@
       <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -786,7 +786,7 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -797,7 +797,7 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -808,7 +808,7 @@
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -819,7 +819,7 @@
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -830,7 +830,7 @@
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -841,7 +841,7 @@
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -852,7 +852,7 @@
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -885,7 +885,7 @@
       <c r="B27" t="s">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -898,6 +898,25 @@
     <hyperlink ref="B22" r:id="rId5" xr:uid="{1E42F0D1-680B-40CA-972A-5EE25CE26209}"/>
     <hyperlink ref="B21" r:id="rId6" xr:uid="{CF50B78F-18D1-4ADC-935C-76DB13192C99}"/>
     <hyperlink ref="B20" r:id="rId7" xr:uid="{D2D2919C-9C10-4DB6-BDB1-3E7377318DBD}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{9DB4F1B2-B4C8-4AA7-841F-051AF4782614}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{EBEACD45-9EAF-44A3-896E-46815CA97021}"/>
+    <hyperlink ref="C13:C22" r:id="rId10" display="https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/12_captura.png" xr:uid="{1A467907-AEA8-4AF5-87E0-268B81C6FC0D}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{579B9209-24B4-4D8B-9A66-6F4C50A1FE8F}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{DF74B25C-A6B1-4F21-B758-35226359990C}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{35B5FBA9-8698-4627-BB86-58CFD2DB6310}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{5756B7B5-D10C-4F7F-9924-68A8C278E8F8}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{69023BA9-2111-48D5-8014-21003137A1B6}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{7BC644C3-2308-4915-B761-019EC02358E8}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{98831464-12F7-4812-852D-AF05AB03377D}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{D4C645DB-5D86-4496-99D7-9AAB54F7DCE0}"/>
+    <hyperlink ref="C21" r:id="rId19" xr:uid="{3043A151-877A-4943-9399-F192489E5B63}"/>
+    <hyperlink ref="C22" r:id="rId20" xr:uid="{31E79660-0151-4F9A-B7F7-B489BA852AD0}"/>
+    <hyperlink ref="C23:C27" r:id="rId21" display="https://github.com/andersonsantos2025/NAC_ebooks/blob/efd900b549c893110a1f0fdc6253faf7e1e28a55/img/12_captura.png" xr:uid="{9F720B67-32A5-46DB-9903-E4EB72694861}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{B04CFC8C-6A44-4C75-82BE-B1F0928CB91F}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{4D096C98-B1DC-4765-9393-B1E388F69A39}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{1AE8B396-DF8F-4D32-B10E-27D1C1B1D228}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{6F0319E1-AED0-4E98-99C1-774C01AAC61E}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{1CA79FB4-D4D4-451C-BBFE-D01D4B623030}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
